--- a/biology/Botanique/Echinocereus_pectinatus/Echinocereus_pectinatus.xlsx
+++ b/biology/Botanique/Echinocereus_pectinatus/Echinocereus_pectinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinocereus pectinatus est une espèce de cactus (famille des Cactaceae).
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Il s'agit d'un cactus bas (10 à 30 cm de hauteur) qui présente des bandes horizontales d'épines colorées en rose, gris, jaune pâle, marron, parfois blanc, d'où son nom vernaculaire anglais : "rainbow cactus" (cactus arc-en-ciel). Sa tige de forme cylindrique a un diamètre moyen de 10 cm et présente des côtes, en général de 15 à 22. Ses épines se présentent en touffes rapprochées partant d'une zone en forme d'ovale vertical ; elles sont minces et peuvent mesurer jusqu'à 1,3 cm de long[1].
-Appareil reproducteur
-La floraison a lieu entre juin et août.
-Les fleurs apparaissent isolées ou en petit nombre. Elles mesurent entre 6 et 14 cm de diamètre et sont constituées de nombreux tépales roses, rose violacé, mauve ou jaunes[1].
-Les fruits sont verts, charnus, et présentent des épines qui parfois tombent à maturité.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un cactus bas (10 à 30 cm de hauteur) qui présente des bandes horizontales d'épines colorées en rose, gris, jaune pâle, marron, parfois blanc, d'où son nom vernaculaire anglais : "rainbow cactus" (cactus arc-en-ciel). Sa tige de forme cylindrique a un diamètre moyen de 10 cm et présente des côtes, en général de 15 à 22. Ses épines se présentent en touffes rapprochées partant d'une zone en forme d'ovale vertical ; elles sont minces et peuvent mesurer jusqu'à 1,3 cm de long.
 </t>
         </is>
       </c>
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Echinocereus pectinatus pousse les pentes rocheuses et les replats des zones désertiques du sud-ouest des États-Unis (de l'Arizona au Texas) et du nord du Mexique. Il pousse généralement sur sol calcaire.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre juin et août.
+Les fleurs apparaissent isolées ou en petit nombre. Elles mesurent entre 6 et 14 cm de diamètre et sont constituées de nombreux tépales roses, rose violacé, mauve ou jaunes.
+Les fruits sont verts, charnus, et présentent des épines qui parfois tombent à maturité.
 </t>
         </is>
       </c>
@@ -575,10 +596,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinocereus pectinatus pousse les pentes rocheuses et les replats des zones désertiques du sud-ouest des États-Unis (de l'Arizona au Texas) et du nord du Mexique. Il pousse généralement sur sol calcaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Echinocereus_pectinatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocereus_pectinatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
